--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 6.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\Ung_Dung_On_Tap_Ly_Thuyet\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CAABD-7076-4FFE-B747-6EDB7A66BF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA3752-8B30-451E-8349-4233E9019F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -43,13 +43,289 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Tôn giáo là một phạm trù lịch sử vì:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là sản phẩm của con người </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là do điều kiện KT – XH sinh ra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tôn giáo ra đời, tồn tại và biến đổi trong một giai đoạn lịch sử nhất định của loài người </t>
+  </si>
+  <si>
+    <t>Tôn giáo sẽ tồn tại và phát triển cùng với sự phát triển của lịch sử nhân loại</t>
+  </si>
+  <si>
+    <t>Khi nào thì tôn giáo mang tính chính trị khi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phản ánh nguyện vọng của nhân dân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi các cuộc đấu tranh tôn giáo nổ ra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi các giai cấp thống trị đã lợi dụng và sử dụng tôn giáo để phục vụ lợi ích của mình </t>
+  </si>
+  <si>
+    <t>Khi con người bất lực trước kẻ thù</t>
+  </si>
+  <si>
+    <t>Điền từ còn thiếu vào chỗ trống: Nhà nước XHCN vừa có bản chất GCCN, vừa có tính nhân dân rộng rãi và tính .... sâu sắc:</t>
+  </si>
+  <si>
+    <t>Giai cấp</t>
+  </si>
+  <si>
+    <t>Nhân đạo</t>
+  </si>
+  <si>
+    <t>Dân tộc</t>
+  </si>
+  <si>
+    <t>Cộng đồng</t>
+  </si>
+  <si>
+    <t>Khái niệm nào sau đây được dùng để chỉ một công đồng người ổn định, được hình thành trong lịch sử, trong một lãnh thổ nhất định, có chung mối liên hệ về kinh tế, ngôn ngữ và một nền văn hóa?</t>
+  </si>
+  <si>
+    <t>Bộ lạc</t>
+  </si>
+  <si>
+    <t>Quốc gia</t>
+  </si>
+  <si>
+    <t>Bộ tộc</t>
+  </si>
+  <si>
+    <t>Nội dung cương lĩnh dân tộc của Lênin là:</t>
+  </si>
+  <si>
+    <t>Các dân tộc hoàn toàn bình đẳng, các dân tộc được quyền tự quyết, liên hiệp công nhân tất cả các dân tộc lại</t>
+  </si>
+  <si>
+    <t>Các dân tộc đoàn kết, bình đẳng và liên hiệp công nhân tất cả các dân tộc lại</t>
+  </si>
+  <si>
+    <t>Các dân tộc có quyền tự quyết, các dân tộc có quyền bình đẳng, hiệp công nhân tất cả các dân tộc lại</t>
+  </si>
+  <si>
+    <t>Các dân tộc hoàn toàn bình đẳng, tự quyết và liên hiệp công nhân các nước.</t>
+  </si>
+  <si>
+    <t>Đặc trưng nổi bật trong quan hệ giữa các dân tộc ở nước ta là:</t>
+  </si>
+  <si>
+    <t>Sự phân bố đan xen, không một dân tộc nào có lãnh thổ riêng</t>
+  </si>
+  <si>
+    <t>Sự đoàn kết dân tộc trong một cộng đồng thống nhất</t>
+  </si>
+  <si>
+    <t>Có sự chênh lệch về trình độ phát triển KT – XH giữa các dân tộc</t>
+  </si>
+  <si>
+    <t>Các dân tộc có bản sắc văn hóa riêng, đa dạng, phong phú</t>
+  </si>
+  <si>
+    <t>Đặc trưng chủ yếu của ý thức tôn giáo là:</t>
+  </si>
+  <si>
+    <t>Sự phản kháng đối với bất công xã hội</t>
+  </si>
+  <si>
+    <t>Niềm tin vào sự tồn tại của các đấng siêu nhiên thần thánh</t>
+  </si>
+  <si>
+    <t>Khát vọng được giải thoát</t>
+  </si>
+  <si>
+    <t>Phản ánh không đúng hiện thực khách quan</t>
+  </si>
+  <si>
+    <t>Tôn giáo nào dưới đây chỉ có ở Việt Nam</t>
+  </si>
+  <si>
+    <t>Phật giáo</t>
+  </si>
+  <si>
+    <t>Cao đài</t>
+  </si>
+  <si>
+    <t>Hinđu</t>
+  </si>
+  <si>
+    <t>Thiên chúa giáo</t>
+  </si>
+  <si>
+    <t>Điền từ còn thiếu vào chỗ trống: Tôn giáo là một hình thái ý thức xã hội phản ánh một cách hoang đường, hư ảo......khách quan. Qua sự phản ánh của tôn giáo, những sức mạnh tự phát trong tự nhiên và xã hội đều trở thành thần bí.</t>
+  </si>
+  <si>
+    <t>Thực tiễn</t>
+  </si>
+  <si>
+    <t>Hiện thực</t>
+  </si>
+  <si>
+    <t>Điều kiện</t>
+  </si>
+  <si>
+    <t>Cuộc sống</t>
+  </si>
+  <si>
+    <t>Để tăng cường, củng cố khối đại đoàn kết dân tộc ở nước ta hiện nay thì chính sách cụ thể nào của Đảng và Nhà nước ta được coi là vấn đề cực kỳ quan trọng?</t>
+  </si>
+  <si>
+    <t>Tôn trọng, lợi ích, văn hóa, truyền thống của các dân tộc</t>
+  </si>
+  <si>
+    <t>Phát huy truyền thống đoàn kết của các dân tộc</t>
+  </si>
+  <si>
+    <t>Phát triển kinh tế hàng hóa ở các vùng dân tộc thiểu số</t>
+  </si>
+  <si>
+    <t>Tăng cường bồi dưỡng, đào tạo đội ngũ các bộ là người dân tộc thiểu số</t>
+  </si>
+  <si>
+    <t>Trong một quốc gia đa dân tộc thì vấn đề gì cần giải quyết được coi là có ý nghĩa cơ bản nhất để thực hiện quyền bình đẳng giữa các dân tộc?</t>
+  </si>
+  <si>
+    <t>Ban hành hệ thống hiến pháp và pháp luật về quyền bình đẳng giữa các dân tộc</t>
+  </si>
+  <si>
+    <t>Chống tư tưởng phân biệt chủng tộc, kỳ thị chia rẽ dân tộc</t>
+  </si>
+  <si>
+    <t>Nâng cao trình độ dân trí, văn hóa cho đồng bào</t>
+  </si>
+  <si>
+    <t>Xóa bỏ dân sự chênh lệch về mọi mặt giữa các dân tộc do lịch sử để lại</t>
+  </si>
+  <si>
+    <t>Điền từ còn thiếu vào chỗ trống: Quyền dân tộc tự quyết là quyền làm chủ của mỗi dân tộc đối với vận mệnh dân tộc mình, quyền tự quyết định chế độ chính trị - xã hội và ..... phát triển dân tộc mình.</t>
+  </si>
+  <si>
+    <t>Cách thức</t>
+  </si>
+  <si>
+    <t>Con đường</t>
+  </si>
+  <si>
+    <t>Mục tiêu</t>
+  </si>
+  <si>
+    <t>Hình thức</t>
+  </si>
+  <si>
+    <t>Tôn giáo là gì?</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội ra đời rất sớm trong lịch sử nhân loại và tồn tại hầu hết ở cộng đồng người trong lịch sử ngàn năm qua</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội ra đời rất muộn trong lịch sử nhân loại và tồn tại hầu hết ở cộng đồng người trong lịch sử ngàn năm qua</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội ra đời rất sớm trong lịch sử nhân loại và tồn tại hầu hết ở cộng đồng người trong lịch sử tư bản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội ra đời rất sớm trong lịch sử nhân loiaj và tồn tại hầu hết ở cộng đồng người trong lịch sử Chiếm hữu nô lệ</t>
+  </si>
+  <si>
+    <t>Bản chất của tôn giáo?</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội phản ánh sự bế tắc bất lực của con người trước tự nhiên và xã hội</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội phản ánh nhu càu cuộc sống</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội phản ánh sự đấu tranh giai cấp</t>
+  </si>
+  <si>
+    <t>Là một hiện tượng xã hội phản ánh sự tồn tại của thần linh</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ XI của Đảng chỉ rõ:</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thiện chính sách, pháp luật về tín ngưỡng, tôn giáo phù hợp với quan điểm của Đảng</t>
+  </si>
+  <si>
+    <t>Cả tôn giáo và triết học đều có mối liên hệ cơ sở kinh tế</t>
+  </si>
+  <si>
+    <t>Phát triển đa dạng các tôn giáo</t>
+  </si>
+  <si>
+    <t>Các tôn giáo mâu thuẫn với nhau</t>
+  </si>
+  <si>
+    <t>Tôn giáo, tín ngưỡng không đơn thuần chỉ là vấn đề thuộc về đời sống tâm linh, tinh thần, mà còn là:</t>
+  </si>
+  <si>
+    <t>Vấn đề văn hóa, đạo đức, lối sống có những giá trị tốt đẹp mà công cuộc xây dựng xã hội mới có thể tiếp thu</t>
+  </si>
+  <si>
+    <t>Là quan điểm đúng đắn, phản ánh rõ truyền thống thờ cúng tổ tiên</t>
+  </si>
+  <si>
+    <t>Là những lời răn dạy của tôn giáo tạo ra những quy phạm đạo đức hướng con người làm các việc thiện lành, tránh điều ác</t>
+  </si>
+  <si>
+    <t>Có đông tín đồ thì các tệ nạn xã hội ít hơn</t>
+  </si>
+  <si>
+    <t>Tính chất lịch sử của tôn giáo?</t>
+  </si>
+  <si>
+    <t>Con người sáng tạo ra tôn giáo. Tôn giáo chỉ xuất hiện khi khả năng tư duy trừu tượng của con người đạt tới một mức độ nhất định. Mặc dù tôn giáo còn tồn tại lâu dài, nhưng nó chỉ là một phạm trù lịch sử.</t>
+  </si>
+  <si>
+    <t>Tôn giáo thể hiện ở tín đồ các tôn giáo thuộc tất cả các giai cấp, tầng lớp trong xã hội, chiếm tỉ lệ cao trong dân số thế giới. Nếu chỉ tính các tôn giáo lớn, đã có tới từ 1/3 đến một nửa dân số thế giới chịu ảnh hưởng của tôn giáo.</t>
+  </si>
+  <si>
+    <t>Tôn giáo xuất phát từ nhiều nguyên nhân. Một mặt, cho đến nay sự phát triển của khoa học, sản xuất và xã hội chưa loại bỏ được những nguồn gốc nảy sinh tôn giáo. Mặt khác, tôn giáo cũng đang đáp ứng phần nào nhu cầu tinh thần của quần chúng, phản ánh khát vọng của những người bị áp bức về một xã hội tự do, bình đẳng...</t>
+  </si>
+  <si>
+    <t>Tôn giáo chỉ xuất hiện khi xã hội đã phân chia giai cấp, có sự khác nhau về lợi ích và các giai cấp bóc lột thống trị lợi dụng tôn giáo phục vụ lợi ích của mình.</t>
+  </si>
+  <si>
+    <t>Tính chất đối lập với khoa học của tôn giáo?</t>
+  </si>
+  <si>
+    <t>Tôn giáo phản ánh hư ảo thế giới hiện thực vào đầu óc con người, giải thích một cách duy tâm, thần bí những thực tại xã hội mà con người đang gặp phải. Vì vậy, tôn giáo mang tính chất duy tâm, đối lập với chủ nghĩa duy vật biện chứng khoa học.</t>
+  </si>
+  <si>
+    <t>Tôn giáo chỉ xuất hiện khi xã hội đã phân chia giai cấp, có sự khác nhau về lợi ích và các giai cấp bóc lột thống trị lợi dụng tôn giáo phục vụ lợi ích của mình</t>
+  </si>
+  <si>
+    <t>Thực hiện sự bình đẳng về quyền và nghĩa vụ công dân mọi cán bộ, đảng viên phải:</t>
+  </si>
+  <si>
+    <t>Không phân biệt đối xử, kỳ thị vì lý do tín ngưỡng, tôn giáo</t>
+  </si>
+  <si>
+    <t>Phân biệt đối xử, kỳ thị vì lý do tín ngưỡng, tôn giáo rõ ràng</t>
+  </si>
+  <si>
+    <t>Theo nhiều tôn giáo</t>
+  </si>
+  <si>
+    <t>Không được tham gia tôn giáo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,19 +334,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,20 +385,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -393,96 +684,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C117" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>